--- a/week-3/data/global-alignment.xlsx
+++ b/week-3/data/global-alignment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21048" windowHeight="8784" tabRatio="689" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21048" windowHeight="8784" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="Initialization" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,13 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -219,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +272,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" activeCellId="2" sqref="B2:B3 C2 C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +663,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
@@ -668,6 +677,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,7 +693,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +840,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +987,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1158,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1329,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,7 +1689,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B2:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1822,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,7 +1957,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,7 +2094,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2218,7 +2231,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,7 +2370,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,7 +2509,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2637,7 +2650,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
